--- a/biology/Botanique/Xanthorrhoeaceae/Xanthorrhoeaceae.xlsx
+++ b/biology/Botanique/Xanthorrhoeaceae/Xanthorrhoeaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Xanthorrhoeaceae (Xanthorrhoéacées ou Xanthorrhœacées) regroupe des plantes monocotylédones.
 Ce sont des arbustes, des plantes arborescentes ou des plantes presque acaules, pérennes, à feuillage persistant, aux organes souterrains rhizomateux ou tubéreux.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Xanthorrhoea donné en 1798 par le botaniste britannique James Edward Smith (1759-1828)[1], qui vient du grec ancien ξανθος / xanthos (« blond, jaune, doré ») et ροεα / rhœa (« qui coule, s'écoule »), signifiant littéralement « coulée jaune », en référence à la résine jaune qui s'écoule de la plante[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Xanthorrhoea donné en 1798 par le botaniste britannique James Edward Smith (1759-1828), qui vient du grec ancien ξανθος / xanthos (« blond, jaune, doré ») et ροεα / rhœa (« qui coule, s'écoule »), signifiant littéralement « coulée jaune », en référence à la résine jaune qui s'écoule de la plante.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3], cette famille est assignée à l'ordre des Liliales, dans la classe des Liliopsida. 
-La classification phylogénétique APG (1998)[4] assigne cette famille à l'ordre des Asparagales.
-En classification phylogénétique APG II (2003)[5], cette famille peut inclure, optionnellement, les plantes autrefois assignées aux familles des Hemerocallidaceae et des Asphodelaceae.
-La classification phylogénétique APG III (2009)[6] inclut dans cette famille les genres précédemment placés dans les familles des Asphodelaceae et des Hemerocallidaceae (les genres Hemerocallis, Phormium entre autres).
-En classification phylogénétique APG IV (2016)[7], la famille des Asphodelaceae se substitue à la famille des Xanthorrhoeaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille est assignée à l'ordre des Liliales, dans la classe des Liliopsida. 
+La classification phylogénétique APG (1998) assigne cette famille à l'ordre des Asparagales.
+En classification phylogénétique APG II (2003), cette famille peut inclure, optionnellement, les plantes autrefois assignées aux familles des Hemerocallidaceae et des Asphodelaceae.
+La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles des Asphodelaceae et des Hemerocallidaceae (les genres Hemerocallis, Phormium entre autres).
+En classification phylogénétique APG IV (2016), la famille des Asphodelaceae se substitue à la famille des Xanthorrhoeaceae.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (4 mai 2012)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (4 mai 2012) :
 Agrostocrinum F.Muell. (1860)
 Aloe L. (1753)
 Arnocrinum Endl. &amp; Lehm. (1846)
@@ -615,7 +633,7 @@
 Trachyandra Kunth (1843)
 Tricoryne R.Br. (1810)
 Xanthorrhoea Sm. (1798)
-Selon NCBI  (16 avr. 2010)[9] :
+Selon NCBI  (16 avr. 2010) :
 sous-famille Asphodeloideae (correspondant à l'ancienne famille Asphodelaceae)
 Aloe
 Asphodeline
@@ -656,7 +674,7 @@
 Tricoryne
 sous-famille Xanthorrhoeoideae
 Xanthorrhoea
-Selon Angiosperm Phylogeny Website                        (20 mai 2010)[10] et DELTA Angio           (16 avr. 2010)[11] :
+Selon Angiosperm Phylogeny Website                        (20 mai 2010) et DELTA Angio           (16 avr. 2010) :
 Xanthorrhoea Smith</t>
         </is>
       </c>
